--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H2">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>1.591764776775</v>
+        <v>0.8977940114912222</v>
       </c>
       <c r="R2">
-        <v>14.325882990975</v>
+        <v>8.080146103421001</v>
       </c>
       <c r="S2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="T2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H3">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
-        <v>4.878428631560999</v>
+        <v>2.941079099313444</v>
       </c>
       <c r="R3">
-        <v>43.905857684049</v>
+        <v>26.469711893821</v>
       </c>
       <c r="S3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="T3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H4">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>1.279702659123</v>
+        <v>1.435443782401222</v>
       </c>
       <c r="R4">
-        <v>11.517323932107</v>
+        <v>12.918994041611</v>
       </c>
       <c r="S4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="T4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H5">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>2.476837343286</v>
+        <v>1.436449149690334</v>
       </c>
       <c r="R5">
-        <v>22.291536089574</v>
+        <v>12.928042347213</v>
       </c>
       <c r="S5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="T5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
     </row>
   </sheetData>
